--- a/estimativa/modelo.xlsx
+++ b/estimativa/modelo.xlsx
@@ -518,6 +518,96 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,96 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,37 +976,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -1049,32 +1049,32 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
@@ -1106,13 +1106,13 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1126,29 +1126,29 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -1177,12 +1177,12 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1190,33 +1190,33 @@
         <v>9</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="37"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="16">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="15"/>
@@ -1225,48 +1225,48 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:10" ht="27" customHeight="1">
+      <c r="A20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
@@ -1295,80 +1295,80 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="20"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="50" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="16.5">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
@@ -1396,19 +1396,19 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="53" t="s">
+    <row r="30" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
@@ -1437,54 +1437,54 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="26"/>
@@ -1499,29 +1499,42 @@
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="A20:J20"/>
@@ -1538,25 +1551,12 @@
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:J37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/estimativa/modelo.xlsx
+++ b/estimativa/modelo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="22935" windowHeight="12285"/>
+    <workbookView xWindow="-6795" yWindow="2370" windowWidth="22935" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="planilha" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>CÁLCULO DE PREÇO ESTIMATIVO DE REFERÊNCIA</t>
   </si>
@@ -126,9 +126,6 @@
     </r>
   </si>
   <si>
-    <t>Parcelas do custo</t>
-  </si>
-  <si>
     <t>Valores finais de Preço Estimado</t>
   </si>
   <si>
@@ -205,6 +202,15 @@
   <si>
     <t>Conforme assinatura eletrônica no SILOMS</t>
   </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>Composição do custo unitário atualizada</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +316,12 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -435,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,6 +529,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,37 +994,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -1049,32 +1067,32 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
@@ -1106,13 +1124,13 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1126,29 +1144,29 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -1177,12 +1195,12 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1190,33 +1208,33 @@
         <v>9</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="16">
         <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="15"/>
@@ -1225,48 +1243,48 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
@@ -1295,80 +1313,88 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="20"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="20"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="28">
+        <v>100</v>
+      </c>
+      <c r="J24" s="28">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5">
+      <c r="A26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5">
-      <c r="A26" s="42" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
@@ -1384,7 +1410,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -1397,18 +1423,18 @@
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A30" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
+      <c r="A30" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
@@ -1424,7 +1450,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -1437,54 +1463,54 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="24" t="s">
+      <c r="G33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="28" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="25" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="28" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="26"/>
@@ -1499,20 +1525,20 @@
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/estimativa/modelo.xlsx
+++ b/estimativa/modelo.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-6795" yWindow="2370" windowWidth="22935" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="planilha" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>CÁLCULO DE PREÇO ESTIMATIVO DE REFERÊNCIA</t>
   </si>
@@ -46,9 +51,6 @@
     <t>Unidade</t>
   </si>
   <si>
-    <t>Preço unitário - Pu,1</t>
-  </si>
-  <si>
     <t>Fonte para delimitação do índice IGP-M: https://www3.bcb.gov.br/CALCIDADAO/publico/exibirFormCorrecaoValores.do?method=exibirFormCorrecaoValores</t>
   </si>
   <si>
@@ -61,97 +63,56 @@
     <t>Qtd - q2</t>
   </si>
   <si>
-    <t>Fator de oportunidade</t>
-  </si>
-  <si>
-    <t>Fop</t>
-  </si>
-  <si>
-    <t>Índice de atualização (IGP-M)</t>
+    <t>tesouro direto pré-fixado com vencimento mais próximo</t>
+  </si>
+  <si>
+    <t>percentual do custo variável unitário com relação ao custo fixo</t>
+  </si>
+  <si>
+    <t>Fato de cotação</t>
+  </si>
+  <si>
+    <t>cotação do dólar atual divido pela da data da requisição de referência</t>
   </si>
   <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>f1,2</t>
+    <t>Fator IGP-M</t>
+  </si>
+  <si>
+    <t>IGP-M acumulado a partir da data da requisição de referência</t>
   </si>
   <si>
     <t>4 - ESTIMATIVA DO PREÇO:</t>
   </si>
   <si>
-    <r>
-      <t>Relação entre as quantidades de aquisição - q</t>
-    </r>
+    <t>Delimitação do custo fixo total e variável unitário considerando os efeitos</t>
+  </si>
+  <si>
+    <t>da taxa SELIC, correção pelo IGP-M e variação na taxa de câmbio</t>
+  </si>
+  <si>
+    <t>Composição de custos corrigida</t>
+  </si>
+  <si>
+    <t>Valor final de Preço Estimado</t>
+  </si>
+  <si>
+    <t>Fixo total</t>
+  </si>
+  <si>
+    <t>Variável unitário</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/q</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fator referente ao Custo Fixo - f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fixo</t>
-    </r>
-  </si>
-  <si>
-    <t>Valores finais de Preço Estimado</t>
-  </si>
-  <si>
-    <t>Fixo</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <r>
-      <t>Preço unitário - P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>U,2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Preço total - P</t>
     </r>
     <r>
@@ -159,7 +120,7 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -185,13 +146,13 @@
     <t>ASSINATURA</t>
   </si>
   <si>
-    <t>1T Kazuya</t>
+    <t>1º Ten Eng Dos Reis</t>
   </si>
   <si>
     <t>NTPJ</t>
   </si>
   <si>
-    <t>1T Costa</t>
+    <t>1º Ten QOEA Costa</t>
   </si>
   <si>
     <t>NTCP</t>
@@ -203,29 +164,34 @@
     <t>Conforme assinatura eletrônica no SILOMS</t>
   </si>
   <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>FAT</t>
-  </si>
-  <si>
-    <t>Composição do custo unitário atualizada</t>
+    <t>Fatores de ajuste</t>
+  </si>
+  <si>
+    <t>Valor Referência</t>
+  </si>
+  <si>
+    <t>% R : CV (unit) / CF</t>
+  </si>
+  <si>
+    <t>% TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -247,7 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -263,7 +229,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -274,20 +240,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -299,34 +266,13 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,14 +281,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADA"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -352,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -362,29 +314,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,44 +331,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -437,7 +339,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -447,15 +349,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,6 +381,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,18 +402,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,125 +431,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,6 +526,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFDEADA"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -661,44 +602,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 4" descr="DADA"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="19050"/>
-          <a:ext cx="666750" cy="866775"/>
+          <a:off x="5511240" y="19080"/>
+          <a:ext cx="664920" cy="797760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="9360">
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -992,43 +924,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L23:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="64" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1040,7 +978,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +992,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1066,35 +1004,35 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="62" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1106,7 +1044,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1120,17 +1058,17 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1138,37 +1076,37 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="32.85" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1180,9 +1118,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1194,99 +1132,117 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="30">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="L16" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="52" t="s">
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="L17" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="52" t="s">
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="16">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="58" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="32">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="51" t="s">
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I19" s="46"/>
+      <c r="J19" s="59">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1295,12 +1251,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1312,91 +1268,94 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="41" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="28">
-        <v>100</v>
-      </c>
-      <c r="J24" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5">
-      <c r="A26" s="44" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="D26" s="39"/>
+      <c r="E26" s="52">
+        <f>A27+C27*E19</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="53">
+        <f>I11/(1+E19*J17)*(1+J16)*(1+J19)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53">
+        <f>J17*I11/(1+E19*J17)*(1+J16)*(1+J18)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52">
+        <f>A27+E19*C27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1408,35 +1367,35 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A30" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1448,144 +1407,144 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="24" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="30" t="s">
+      <c r="G33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="25" t="s">
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="30" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="25" t="s">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="34" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36" t="s">
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="S40" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="38">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:J27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:J37"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>